--- a/Data/EC/NIT-9000517791.xlsx
+++ b/Data/EC/NIT-9000517791.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49F13A7-F9F2-45BC-9DA8-B70310F57047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2685B9D8-F77D-4D24-B4E3-CAB5DD3CCB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B31C7325-9F0A-4BB1-AD6C-CD3AC0D8DAC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{471E388F-F6C5-4260-9100-96C2D3776D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,112 +71,112 @@
     <t>NETIS MARIA NAVARRO HERNANDEZ</t>
   </si>
   <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
     <t>1606</t>
   </si>
   <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
     <t>1143340411</t>
   </si>
   <si>
     <t>GERMAN ALONSO VILLA CASTELLON</t>
   </si>
   <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
     <t>1804</t>
   </si>
   <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
     <t>1002241869</t>
   </si>
   <si>
     <t>WESNIDY CAROLINA DE LA ROSA REALES</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -275,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -288,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173CDF29-71A6-305C-72A5-A9FD854B8E78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C56787F-FDD6-6390-7CCC-B007C136407C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD42D93-7CF0-4949-AD91-10A58C4A0A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D1AE3-5E4E-4190-8634-50D510562895}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>27607</v>
+        <v>33128</v>
       </c>
       <c r="G28" s="18">
         <v>828200</v>
@@ -1832,7 +1832,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="24">
-        <v>33128</v>
+        <v>27607</v>
       </c>
       <c r="G47" s="24">
         <v>828200</v>
